--- a/CashFlow/ZBH_cashflow.xlsx
+++ b/CashFlow/ZBH_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>9903000000.0</v>
+        <v>-40800000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>9837000000.0</v>
+        <v>-127800000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>7322000000.0</v>
+        <v>-164800000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4792700000.0</v>
+        <v>-170500000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2279000000.0</v>
+        <v>-125200000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-140300000.0</v>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1350000000.0</v>
+        <v>-95100000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1421000000.0</v>
+        <v>-10700000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1193100000.0</v>
+        <v>-6100000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>834700000.0</v>
+        <v>93600000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>238300000.0</v>
+        <v>-42000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-30400000.0</v>
